--- a/data/X_test.xlsx
+++ b/data/X_test.xlsx
@@ -525,7 +525,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>100175</v>
+        <v>96145</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -579,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -673,7 +673,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>95568</v>
+        <v>83887</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -747,16 +747,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>78716</v>
+        <v>78703</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -816,12 +816,12 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>83196</v>
+        <v>78422</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -869,33 +869,33 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>96735</v>
+        <v>76270</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E8">
         <v>0.04878048780487805</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>95683</v>
+        <v>81036</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1117,28 +1117,28 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>96810</v>
+        <v>99892</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>98079</v>
+        <v>77755</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1265,28 +1265,28 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>87091</v>
+        <v>82448</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D12">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0975609756097561</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>89956</v>
+        <v>97733</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E13">
-        <v>0.02439024390243903</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1413,22 +1413,22 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>93394</v>
+        <v>83410</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1783,7 +1783,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <v>78422</v>
+        <v>84997</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <v>90159</v>
+        <v>95404</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -1869,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>100042</v>
+        <v>82993</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -1997,24 +1997,24 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
-        <v>79072</v>
+        <v>79001</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D22">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2074,12 +2074,12 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <v>92613</v>
+        <v>88480</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2142,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>89353</v>
+        <v>91975</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>98036</v>
+        <v>101376</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2429,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>91478</v>
+        <v>89353</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2589,15 +2589,15 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>101118</v>
+        <v>88252</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E31">
         <v>0.07317073170731708</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>83410</v>
+        <v>76484</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0.02439024390243903</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2799,27 +2799,27 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>86416</v>
+        <v>93507</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -2893,25 +2893,25 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <v>78703</v>
+        <v>95287</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D34">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2941,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -2962,18 +2962,18 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
-        <v>88505</v>
+        <v>75647</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3027,13 +3027,13 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
-        <v>92634</v>
+        <v>92613</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3095,19 +3095,19 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -3115,22 +3115,22 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
-        <v>92227</v>
+        <v>94489</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D37">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3163,19 +3163,19 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3184,33 +3184,33 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
-        <v>90730</v>
+        <v>82408</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
-        <v>89527</v>
+        <v>90855</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
@@ -3272,25 +3272,25 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3329,15 +3329,15 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
-        <v>96914</v>
+        <v>87472</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E42">
         <v>0.02439024390243903</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
-        <v>86004</v>
+        <v>89348</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
@@ -3571,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3622,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44">
-        <v>75647</v>
+        <v>94905</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
-        <v>79093</v>
+        <v>100042</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3761,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46">
-        <v>85360</v>
+        <v>95433</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3835,27 +3835,27 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47">
-        <v>95064</v>
+        <v>79072</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48">
-        <v>91975</v>
+        <v>95481</v>
       </c>
       <c r="B48" t="b">
         <v>0</v>
@@ -3944,13 +3944,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -4003,22 +4003,22 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49">
-        <v>90092</v>
+        <v>87091</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4057,19 +4057,19 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50">
-        <v>94631</v>
+        <v>94620</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -4143,15 +4143,15 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51">
-        <v>102469</v>
+        <v>87564</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
@@ -4160,13 +4160,13 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -4202,13 +4202,13 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52">
-        <v>90607</v>
+        <v>99719</v>
       </c>
       <c r="B52" t="b">
         <v>0</v>
@@ -4234,13 +4234,13 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4291,15 +4291,15 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53">
-        <v>87548</v>
+        <v>91049</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.1951219512195122</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4326,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -4353,19 +4353,19 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54">
-        <v>88664</v>
+        <v>88662</v>
       </c>
       <c r="B54" t="b">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55">
-        <v>79212</v>
+        <v>85706</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
@@ -4456,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0.02439024390243903</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4492,36 +4492,36 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56">
-        <v>90855</v>
+        <v>81559</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4595,13 +4595,13 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57">
-        <v>82448</v>
+        <v>101002</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4610,19 +4610,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>1</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -4669,13 +4669,13 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58">
-        <v>99719</v>
+        <v>82487</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4729,13 +4729,13 @@
         <v>1</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58">
         <v>0</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59">
-        <v>88662</v>
+        <v>80775</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -4752,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60">
-        <v>93507</v>
+        <v>98874</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -4832,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -4871,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61">
-        <v>87692</v>
+        <v>86004</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62">
-        <v>96209</v>
+        <v>100462</v>
       </c>
       <c r="B62" t="b">
         <v>0</v>
@@ -4974,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E62">
-        <v>0.0975609756097561</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>10</v>
@@ -5028,33 +5028,33 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63">
-        <v>101276</v>
+        <v>97999</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D63">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65">
-        <v>77755</v>
+        <v>90092</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -5226,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5261,22 +5261,22 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66">
-        <v>90551</v>
+        <v>97056</v>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>3.048780487804878</v>
       </c>
       <c r="F66">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5288,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -5315,19 +5315,19 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67">
-        <v>98424</v>
+        <v>82120</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -5409,22 +5409,22 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68">
-        <v>92024</v>
+        <v>100437</v>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.07317073170731708</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -5463,19 +5463,19 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68">
         <v>0</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69">
-        <v>82508</v>
+        <v>92535</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
@@ -5492,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -5522,13 +5522,13 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -5537,10 +5537,10 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5631,7 +5631,7 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71">
-        <v>98738</v>
+        <v>98734</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -5640,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="F71">
         <v>12</v>
@@ -5658,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -5694,13 +5694,13 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E72">
         <v>0.1219512195121951</v>
@@ -5853,22 +5853,22 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74">
-        <v>88176</v>
+        <v>88637</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -5907,19 +5907,19 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74">
         <v>0</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76">
-        <v>87543</v>
+        <v>96891</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
@@ -6013,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.2195121951219512</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -6064,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78">
-        <v>100913</v>
+        <v>82508</v>
       </c>
       <c r="B78" t="b">
         <v>0</v>
@@ -6158,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0.5365853658536586</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6188,13 +6188,13 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -6203,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78">
         <v>0</v>
@@ -6215,15 +6215,15 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="A79">
-        <v>81804</v>
+        <v>96464</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
@@ -6238,13 +6238,13 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81">
-        <v>90471</v>
+        <v>83331</v>
       </c>
       <c r="B81" t="b">
         <v>0</v>
@@ -6380,13 +6380,13 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -6422,13 +6422,13 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E83">
         <v>0.07317073170731708</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84">
-        <v>76484</v>
+        <v>87437</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
@@ -6605,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.02439024390243903</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -6667,19 +6667,19 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85">
-        <v>79001</v>
+        <v>79212</v>
       </c>
       <c r="B85" t="b">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -6721,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -6736,12 +6736,12 @@
         <v>0</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86">
-        <v>98874</v>
+        <v>87996</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -6753,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F86">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -6780,13 +6780,13 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -6795,19 +6795,19 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
         <v>0</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X86">
         <v>0</v>
@@ -6815,22 +6815,22 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87">
-        <v>91583</v>
+        <v>98472</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -6875,13 +6875,13 @@
         <v>1</v>
       </c>
       <c r="U87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87">
         <v>0</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -6889,19 +6889,19 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88">
-        <v>99892</v>
+        <v>87543</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0.0975609756097561</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="F88">
         <v>7</v>
@@ -6949,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="U88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W88">
         <v>0</v>
@@ -6963,25 +6963,25 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89">
-        <v>88543</v>
+        <v>88505</v>
       </c>
       <c r="B89" t="b">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0.1219512195121951</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>12</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90">
-        <v>88252</v>
+        <v>94631</v>
       </c>
       <c r="B90" t="b">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91">
-        <v>97218</v>
+        <v>77070</v>
       </c>
       <c r="B91" t="b">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7259,13 +7259,13 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93">
-        <v>97999</v>
+        <v>98079</v>
       </c>
       <c r="B93" t="b">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -7313,19 +7313,19 @@
         <v>0</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>0</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95">
-        <v>91347</v>
+        <v>91327</v>
       </c>
       <c r="B95" t="b">
         <v>0</v>
@@ -7416,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E95">
-        <v>0.0975609756097561</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97">
-        <v>90394</v>
+        <v>92587</v>
       </c>
       <c r="B97" t="b">
         <v>0</v>
@@ -7564,13 +7564,13 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7609,10 +7609,10 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>0</v>
@@ -7621,21 +7621,21 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98">
-        <v>91337</v>
+        <v>97474</v>
       </c>
       <c r="B98" t="b">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -7689,13 +7689,13 @@
         <v>1</v>
       </c>
       <c r="U98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V98">
         <v>0</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X98">
         <v>0</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99">
-        <v>91139</v>
+        <v>89035</v>
       </c>
       <c r="B99" t="b">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -7757,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="S99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99">
         <v>0</v>
@@ -7777,19 +7777,19 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100">
-        <v>81883</v>
+        <v>81804</v>
       </c>
       <c r="B100" t="b">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>9</v>
@@ -7837,13 +7837,13 @@
         <v>1</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V100">
         <v>0</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X100">
         <v>0</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101">
-        <v>93010</v>
+        <v>99150</v>
       </c>
       <c r="B101" t="b">
         <v>0</v>
@@ -7860,13 +7860,13 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -7905,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101">
         <v>0</v>
@@ -7917,15 +7917,15 @@
         <v>0</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102">
-        <v>76270</v>
+        <v>100077</v>
       </c>
       <c r="B102" t="b">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -7964,13 +7964,13 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103">
-        <v>81036</v>
+        <v>87083</v>
       </c>
       <c r="B103" t="b">
         <v>0</v>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104">
-        <v>92303</v>
+        <v>88753</v>
       </c>
       <c r="B104" t="b">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -8118,19 +8118,19 @@
         <v>0</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104">
         <v>0</v>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107">
-        <v>93689</v>
+        <v>101118</v>
       </c>
       <c r="B107" t="b">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0.04878048780487805</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -8358,10 +8358,10 @@
         <v>0</v>
       </c>
       <c r="V107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107">
         <v>0</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108">
-        <v>84823</v>
+        <v>87692</v>
       </c>
       <c r="B108" t="b">
         <v>0</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0.07317073170731708</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>8</v>
@@ -8432,10 +8432,10 @@
         <v>0</v>
       </c>
       <c r="V108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X108">
         <v>0</v>
@@ -8443,28 +8443,28 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109">
-        <v>82487</v>
+        <v>101066</v>
       </c>
       <c r="B109" t="b">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="U109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V109">
         <v>0</v>
@@ -8512,12 +8512,12 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:24">
       <c r="A110">
-        <v>78971</v>
+        <v>78035</v>
       </c>
       <c r="B110" t="b">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -8583,10 +8583,10 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -8665,22 +8665,22 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112">
-        <v>89175</v>
+        <v>88851</v>
       </c>
       <c r="B112" t="b">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D112">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -8719,13 +8719,13 @@
         <v>0</v>
       </c>
       <c r="S112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -8734,12 +8734,12 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:24">
       <c r="A113">
-        <v>88637</v>
+        <v>97508</v>
       </c>
       <c r="B113" t="b">
         <v>0</v>
@@ -8748,13 +8748,13 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F113">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -8793,10 +8793,10 @@
         <v>0</v>
       </c>
       <c r="S113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U113">
         <v>0</v>
@@ -8805,30 +8805,30 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:24">
       <c r="A114">
-        <v>94121</v>
+        <v>100174</v>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114">
         <v>0</v>
@@ -8867,13 +8867,13 @@
         <v>0</v>
       </c>
       <c r="S114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -8882,12 +8882,12 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:24">
       <c r="A115">
-        <v>91049</v>
+        <v>91043</v>
       </c>
       <c r="B115" t="b">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116">
-        <v>92218</v>
+        <v>92024</v>
       </c>
       <c r="B116" t="b">
         <v>0</v>
@@ -8970,13 +8970,13 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116">
         <v>0</v>
@@ -9027,15 +9027,15 @@
         <v>0</v>
       </c>
       <c r="W116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:24">
       <c r="A117">
-        <v>99376</v>
+        <v>87886</v>
       </c>
       <c r="B117" t="b">
         <v>0</v>
@@ -9047,10 +9047,10 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -9074,13 +9074,13 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <v>0</v>
       </c>
       <c r="P117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -9089,19 +9089,19 @@
         <v>0</v>
       </c>
       <c r="S117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117">
         <v>0</v>
       </c>
       <c r="V117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X117">
         <v>0</v>
@@ -9183,22 +9183,22 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119">
-        <v>92977</v>
+        <v>95216</v>
       </c>
       <c r="B119" t="b">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -9222,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119">
         <v>0</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -9237,19 +9237,19 @@
         <v>0</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V119">
         <v>0</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X119">
         <v>0</v>
@@ -9257,22 +9257,22 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120">
-        <v>97819</v>
+        <v>84107</v>
       </c>
       <c r="B120" t="b">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         <v>1</v>
       </c>
       <c r="U120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V120">
         <v>0</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X120">
         <v>0</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121">
-        <v>96520</v>
+        <v>88567</v>
       </c>
       <c r="B121" t="b">
         <v>0</v>
@@ -9340,10 +9340,10 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>12</v>
@@ -9370,13 +9370,13 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <v>0</v>
       </c>
       <c r="P121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -9385,10 +9385,10 @@
         <v>0</v>
       </c>
       <c r="S121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U121">
         <v>0</v>
@@ -9397,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="W121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9479,13 +9479,13 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123">
-        <v>83887</v>
+        <v>78716</v>
       </c>
       <c r="B123" t="b">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -9539,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="U123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V123">
         <v>0</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X123">
         <v>0</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124">
-        <v>87083</v>
+        <v>90159</v>
       </c>
       <c r="B124" t="b">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127">
-        <v>101966</v>
+        <v>92227</v>
       </c>
       <c r="B127" t="b">
         <v>0</v>
@@ -9784,13 +9784,13 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -9823,16 +9823,16 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127">
         <v>0</v>
       </c>
       <c r="S127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U127">
         <v>0</v>
@@ -9841,10 +9841,10 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -9923,10 +9923,10 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129">
-        <v>78835</v>
+        <v>84504</v>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -9977,10 +9977,10 @@
         <v>0</v>
       </c>
       <c r="S129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U129">
         <v>0</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="130" spans="1:24">
       <c r="A130">
-        <v>86932</v>
+        <v>104343</v>
       </c>
       <c r="B130" t="b">
         <v>0</v>
@@ -10006,13 +10006,13 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -10048,13 +10048,13 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U130">
         <v>0</v>
@@ -10063,10 +10063,10 @@
         <v>0</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10145,7 +10145,7 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132">
-        <v>96246</v>
+        <v>101966</v>
       </c>
       <c r="B132" t="b">
         <v>0</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133">
-        <v>76925</v>
+        <v>97877</v>
       </c>
       <c r="B133" t="b">
         <v>0</v>
@@ -10228,13 +10228,13 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F133">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -10285,15 +10285,15 @@
         <v>0</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:24">
       <c r="A134">
-        <v>100023</v>
+        <v>102469</v>
       </c>
       <c r="B134" t="b">
         <v>0</v>
@@ -10302,13 +10302,13 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -10338,13 +10338,13 @@
         <v>0</v>
       </c>
       <c r="P134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -10359,15 +10359,15 @@
         <v>0</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:24">
       <c r="A135">
-        <v>100734</v>
+        <v>90744</v>
       </c>
       <c r="B135" t="b">
         <v>0</v>
@@ -10376,19 +10376,19 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="F135">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136">
-        <v>99042</v>
+        <v>99058</v>
       </c>
       <c r="B136" t="b">
         <v>0</v>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E136">
         <v>0.02439024390243903</v>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137">
-        <v>82120</v>
+        <v>86416</v>
       </c>
       <c r="B137" t="b">
         <v>0</v>
@@ -10524,13 +10524,13 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -10663,7 +10663,7 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139">
-        <v>88485</v>
+        <v>88040</v>
       </c>
       <c r="B139" t="b">
         <v>0</v>
@@ -10675,10 +10675,10 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -10702,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -10726,10 +10726,10 @@
         <v>0</v>
       </c>
       <c r="V139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X139">
         <v>0</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140">
-        <v>98336</v>
+        <v>102764</v>
       </c>
       <c r="B140" t="b">
         <v>0</v>
@@ -10746,13 +10746,13 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -10767,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="N140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -10791,10 +10791,10 @@
         <v>0</v>
       </c>
       <c r="S140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U140">
         <v>0</v>
@@ -10803,10 +10803,10 @@
         <v>0</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -10885,7 +10885,7 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142">
-        <v>84504</v>
+        <v>93463</v>
       </c>
       <c r="B142" t="b">
         <v>0</v>
@@ -10894,13 +10894,13 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -10936,13 +10936,13 @@
         <v>0</v>
       </c>
       <c r="R142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142">
         <v>0</v>
@@ -10951,10 +10951,10 @@
         <v>0</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -11181,7 +11181,7 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146">
-        <v>87472</v>
+        <v>78531</v>
       </c>
       <c r="B146" t="b">
         <v>0</v>
@@ -11190,13 +11190,13 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q146">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="S146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U146">
         <v>0</v>
@@ -11247,30 +11247,30 @@
         <v>0</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:24">
       <c r="A147">
-        <v>97474</v>
+        <v>96520</v>
       </c>
       <c r="B147" t="b">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F147">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O147">
         <v>0</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="S147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -11324,12 +11324,12 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:24">
       <c r="A148">
-        <v>82945</v>
+        <v>96122</v>
       </c>
       <c r="B148" t="b">
         <v>0</v>
@@ -11338,19 +11338,19 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>0.07317073170731708</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="P148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -11395,21 +11395,21 @@
         <v>0</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:24">
       <c r="A149">
-        <v>88398</v>
+        <v>75303</v>
       </c>
       <c r="B149" t="b">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149">
         <v>0</v>
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149">
         <v>0</v>
@@ -11477,13 +11477,13 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150">
-        <v>75303</v>
+        <v>92740</v>
       </c>
       <c r="B150" t="b">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -11492,13 +11492,13 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -11531,19 +11531,19 @@
         <v>0</v>
       </c>
       <c r="S150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V150">
         <v>0</v>
       </c>
       <c r="W150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X150">
         <v>0</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151">
-        <v>95481</v>
+        <v>82696</v>
       </c>
       <c r="B151" t="b">
         <v>0</v>
@@ -11566,13 +11566,13 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q151">
         <v>0</v>
@@ -11625,22 +11625,22 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152">
-        <v>93931</v>
+        <v>94884</v>
       </c>
       <c r="B152" t="b">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="F152">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -11685,10 +11685,10 @@
         <v>1</v>
       </c>
       <c r="U152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153">
-        <v>88040</v>
+        <v>76925</v>
       </c>
       <c r="B153" t="b">
         <v>0</v>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <v>0</v>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -11753,10 +11753,10 @@
         <v>0</v>
       </c>
       <c r="S153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U153">
         <v>0</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154">
-        <v>77070</v>
+        <v>99361</v>
       </c>
       <c r="B154" t="b">
         <v>0</v>
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155">
-        <v>91811</v>
+        <v>75328</v>
       </c>
       <c r="B155" t="b">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -11874,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="P155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -11901,10 +11901,10 @@
         <v>0</v>
       </c>
       <c r="S155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U155">
         <v>0</v>
@@ -11921,7 +11921,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156">
-        <v>75328</v>
+        <v>96209</v>
       </c>
       <c r="B156" t="b">
         <v>0</v>
@@ -11933,10 +11933,10 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="P156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -11984,10 +11984,10 @@
         <v>0</v>
       </c>
       <c r="V156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X156">
         <v>0</v>
@@ -11995,7 +11995,7 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157">
-        <v>78531</v>
+        <v>67443</v>
       </c>
       <c r="B157" t="b">
         <v>0</v>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -12034,13 +12034,13 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O157">
         <v>0</v>
       </c>
       <c r="P157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158">
-        <v>67443</v>
+        <v>87201</v>
       </c>
       <c r="B158" t="b">
         <v>0</v>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -12114,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="P158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -12143,22 +12143,22 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159">
-        <v>87398</v>
+        <v>73240</v>
       </c>
       <c r="B159" t="b">
         <v>1</v>
       </c>
       <c r="C159">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -12197,13 +12197,13 @@
         <v>0</v>
       </c>
       <c r="S159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -12212,27 +12212,27 @@
         <v>0</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:24">
       <c r="A160">
-        <v>73240</v>
+        <v>101461</v>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>0.8333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="P160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160">
         <v>0</v>
@@ -12291,7 +12291,7 @@
     </row>
     <row r="161" spans="1:24">
       <c r="A161">
-        <v>90569</v>
+        <v>90551</v>
       </c>
       <c r="B161" t="b">
         <v>0</v>
@@ -12303,10 +12303,10 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0.0975609756097561</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161">
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="P161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -12354,10 +12354,10 @@
         <v>0</v>
       </c>
       <c r="V161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X161">
         <v>0</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="162" spans="1:24">
       <c r="A162">
-        <v>101461</v>
+        <v>75500</v>
       </c>
       <c r="B162" t="b">
         <v>0</v>
@@ -12374,13 +12374,13 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E162">
         <v>0.02439024390243903</v>
       </c>
       <c r="F162">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -12404,13 +12404,13 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162">
         <v>0</v>
       </c>
       <c r="P162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q162">
         <v>0</v>
@@ -12419,10 +12419,10 @@
         <v>0</v>
       </c>
       <c r="S162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U162">
         <v>0</v>
@@ -12439,7 +12439,7 @@
     </row>
     <row r="163" spans="1:24">
       <c r="A163">
-        <v>75500</v>
+        <v>96719</v>
       </c>
       <c r="B163" t="b">
         <v>0</v>
@@ -12448,19 +12448,19 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -12505,15 +12505,15 @@
         <v>0</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:24">
       <c r="A164">
-        <v>81559</v>
+        <v>94770</v>
       </c>
       <c r="B164" t="b">
         <v>0</v>
@@ -12522,13 +12522,13 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164">
         <v>0</v>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -12567,10 +12567,10 @@
         <v>0</v>
       </c>
       <c r="S164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U164">
         <v>0</v>
@@ -12579,15 +12579,15 @@
         <v>0</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:24">
       <c r="A165">
-        <v>88179</v>
+        <v>75233</v>
       </c>
       <c r="B165" t="b">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O165">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R165">
         <v>0</v>
@@ -12661,7 +12661,7 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166">
-        <v>75233</v>
+        <v>93010</v>
       </c>
       <c r="B166" t="b">
         <v>0</v>
@@ -12670,13 +12670,13 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -12709,16 +12709,16 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R166">
         <v>0</v>
       </c>
       <c r="S166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U166">
         <v>0</v>
@@ -12727,15 +12727,15 @@
         <v>0</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:24">
       <c r="A167">
-        <v>86703</v>
+        <v>89175</v>
       </c>
       <c r="B167" t="b">
         <v>0</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -12789,10 +12789,10 @@
         <v>0</v>
       </c>
       <c r="S167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U167">
         <v>0</v>
@@ -12801,15 +12801,15 @@
         <v>0</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:24">
       <c r="A168">
-        <v>88921</v>
+        <v>100791</v>
       </c>
       <c r="B168" t="b">
         <v>0</v>
@@ -12824,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -12883,7 +12883,7 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169">
-        <v>100791</v>
+        <v>68786</v>
       </c>
       <c r="B169" t="b">
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="N169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -12937,10 +12937,10 @@
         <v>0</v>
       </c>
       <c r="S169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U169">
         <v>0</v>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170">
-        <v>68786</v>
+        <v>74388</v>
       </c>
       <c r="B170" t="b">
         <v>0</v>
@@ -12966,13 +12966,13 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -12996,13 +12996,13 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O170">
         <v>0</v>
       </c>
       <c r="P170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -13011,10 +13011,10 @@
         <v>0</v>
       </c>
       <c r="S170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U170">
         <v>0</v>
@@ -13023,15 +13023,15 @@
         <v>0</v>
       </c>
       <c r="W170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:24">
       <c r="A171">
-        <v>74388</v>
+        <v>85132</v>
       </c>
       <c r="B171" t="b">
         <v>0</v>
@@ -13040,13 +13040,13 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E171">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172">
-        <v>91724</v>
+        <v>69361</v>
       </c>
       <c r="B172" t="b">
         <v>0</v>
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -13159,10 +13159,10 @@
         <v>0</v>
       </c>
       <c r="S172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U172">
         <v>0</v>
@@ -13179,7 +13179,7 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173">
-        <v>69361</v>
+        <v>94826</v>
       </c>
       <c r="B173" t="b">
         <v>0</v>
@@ -13194,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173">
         <v>0</v>
@@ -13230,13 +13230,13 @@
         <v>0</v>
       </c>
       <c r="R173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U173">
         <v>0</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174">
-        <v>78035</v>
+        <v>79093</v>
       </c>
       <c r="B174" t="b">
         <v>0</v>
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="P174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -13327,22 +13327,22 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175">
-        <v>80775</v>
+        <v>88176</v>
       </c>
       <c r="B175" t="b">
         <v>0</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D175">
-        <v>0.1666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -13369,10 +13369,10 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -13381,13 +13381,13 @@
         <v>0</v>
       </c>
       <c r="S175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V175">
         <v>0</v>
@@ -13396,12 +13396,12 @@
         <v>0</v>
       </c>
       <c r="X175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:24">
       <c r="A176">
-        <v>99199</v>
+        <v>95521</v>
       </c>
       <c r="B176" t="b">
         <v>0</v>
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -13425,13 +13425,13 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -13455,10 +13455,10 @@
         <v>0</v>
       </c>
       <c r="S176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U176">
         <v>0</v>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177">
-        <v>95433</v>
+        <v>68340</v>
       </c>
       <c r="B177" t="b">
         <v>0</v>
@@ -13487,10 +13487,10 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -13508,13 +13508,13 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M177">
         <v>0</v>
       </c>
       <c r="N177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -13538,10 +13538,10 @@
         <v>0</v>
       </c>
       <c r="V177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X177">
         <v>0</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178">
-        <v>68340</v>
+        <v>90607</v>
       </c>
       <c r="B178" t="b">
         <v>0</v>
@@ -13558,13 +13558,13 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -13603,10 +13603,10 @@
         <v>0</v>
       </c>
       <c r="S178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U178">
         <v>0</v>
@@ -13615,30 +13615,30 @@
         <v>0</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:24">
       <c r="A179">
-        <v>79316</v>
+        <v>78835</v>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="F179">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="P179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -13689,15 +13689,15 @@
         <v>0</v>
       </c>
       <c r="W179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:24">
       <c r="A180">
-        <v>101376</v>
+        <v>84823</v>
       </c>
       <c r="B180" t="b">
         <v>0</v>
@@ -13709,16 +13709,16 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.07317073170731708</v>
       </c>
       <c r="F180">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -13751,19 +13751,19 @@
         <v>0</v>
       </c>
       <c r="S180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U180">
         <v>0</v>
       </c>
       <c r="V180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X180">
         <v>0</v>
@@ -13771,7 +13771,7 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181">
-        <v>84997</v>
+        <v>86932</v>
       </c>
       <c r="B181" t="b">
         <v>0</v>
@@ -13780,13 +13780,13 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -13798,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -13822,13 +13822,13 @@
         <v>0</v>
       </c>
       <c r="R181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U181">
         <v>0</v>
@@ -13837,15 +13837,15 @@
         <v>0</v>
       </c>
       <c r="W181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:24">
       <c r="A182">
-        <v>89035</v>
+        <v>99650</v>
       </c>
       <c r="B182" t="b">
         <v>0</v>
@@ -13860,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -13899,10 +13899,10 @@
         <v>0</v>
       </c>
       <c r="S182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U182">
         <v>0</v>
@@ -13919,22 +13919,22 @@
     </row>
     <row r="183" spans="1:24">
       <c r="A183">
-        <v>85522</v>
+        <v>74461</v>
       </c>
       <c r="B183" t="b">
         <v>0</v>
       </c>
       <c r="C183">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -13964,22 +13964,22 @@
         <v>0</v>
       </c>
       <c r="P183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R183">
         <v>0</v>
       </c>
       <c r="S183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V183">
         <v>0</v>
@@ -13988,12 +13988,12 @@
         <v>0</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:24">
       <c r="A184">
-        <v>74461</v>
+        <v>73514</v>
       </c>
       <c r="B184" t="b">
         <v>0</v>
@@ -14002,13 +14002,13 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -14032,13 +14032,13 @@
         <v>0</v>
       </c>
       <c r="N184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184">
         <v>0</v>
       </c>
       <c r="P184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q184">
         <v>0</v>
@@ -14047,10 +14047,10 @@
         <v>0</v>
       </c>
       <c r="S184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U184">
         <v>0</v>
@@ -14059,30 +14059,30 @@
         <v>0</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:24">
       <c r="A185">
-        <v>73514</v>
+        <v>68960</v>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -14106,13 +14106,13 @@
         <v>0</v>
       </c>
       <c r="N185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O185">
         <v>0</v>
       </c>
       <c r="P185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -14127,13 +14127,13 @@
         <v>1</v>
       </c>
       <c r="U185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V185">
         <v>0</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X185">
         <v>0</v>
@@ -14141,22 +14141,22 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186">
-        <v>68960</v>
+        <v>90394</v>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -14180,13 +14180,13 @@
         <v>0</v>
       </c>
       <c r="N186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O186">
         <v>0</v>
       </c>
       <c r="P186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -14201,13 +14201,13 @@
         <v>1</v>
       </c>
       <c r="U186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V186">
         <v>0</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X186">
         <v>0</v>
@@ -14215,28 +14215,28 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187">
-        <v>90397</v>
+        <v>97021</v>
       </c>
       <c r="B187" t="b">
         <v>0</v>
       </c>
       <c r="C187">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F187">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -14275,10 +14275,10 @@
         <v>1</v>
       </c>
       <c r="U187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -14289,22 +14289,22 @@
     </row>
     <row r="188" spans="1:24">
       <c r="A188">
-        <v>97056</v>
+        <v>100403</v>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>3.048780487804878</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -14334,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="P188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -14343,19 +14343,19 @@
         <v>0</v>
       </c>
       <c r="S188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V188">
         <v>0</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X188">
         <v>0</v>
@@ -14363,7 +14363,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189">
-        <v>101002</v>
+        <v>99199</v>
       </c>
       <c r="B189" t="b">
         <v>0</v>
@@ -14378,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -14387,10 +14387,10 @@
         <v>0</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -14417,10 +14417,10 @@
         <v>0</v>
       </c>
       <c r="S189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U189">
         <v>0</v>
@@ -14437,28 +14437,28 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190">
-        <v>101397</v>
+        <v>100175</v>
       </c>
       <c r="B190" t="b">
         <v>0</v>
       </c>
       <c r="C190">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -14485,19 +14485,19 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R190">
         <v>0</v>
       </c>
       <c r="S190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V190">
         <v>0</v>
@@ -14506,12 +14506,12 @@
         <v>0</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:24">
       <c r="A191">
-        <v>100842</v>
+        <v>85833</v>
       </c>
       <c r="B191" t="b">
         <v>0</v>
@@ -14520,13 +14520,13 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -14577,15 +14577,15 @@
         <v>0</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:24">
       <c r="A192">
-        <v>104343</v>
+        <v>75399</v>
       </c>
       <c r="B192" t="b">
         <v>0</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="193" spans="1:24">
       <c r="A193">
-        <v>75399</v>
+        <v>91724</v>
       </c>
       <c r="B193" t="b">
         <v>0</v>
@@ -14674,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
         <v>0</v>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="N193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -14733,7 +14733,7 @@
     </row>
     <row r="194" spans="1:24">
       <c r="A194">
-        <v>85738</v>
+        <v>80785</v>
       </c>
       <c r="B194" t="b">
         <v>0</v>
@@ -14745,10 +14745,10 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -14796,10 +14796,10 @@
         <v>0</v>
       </c>
       <c r="V194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X194">
         <v>0</v>
@@ -14807,7 +14807,7 @@
     </row>
     <row r="195" spans="1:24">
       <c r="A195">
-        <v>85132</v>
+        <v>67751</v>
       </c>
       <c r="B195" t="b">
         <v>0</v>
@@ -14816,13 +14816,13 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F195">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -14846,13 +14846,13 @@
         <v>0</v>
       </c>
       <c r="N195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195">
         <v>0</v>
       </c>
       <c r="P195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -14861,27 +14861,27 @@
         <v>0</v>
       </c>
       <c r="S195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U195">
         <v>0</v>
       </c>
       <c r="V195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W195">
         <v>0</v>
       </c>
       <c r="X195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:24">
       <c r="A196">
-        <v>67751</v>
+        <v>95271</v>
       </c>
       <c r="B196" t="b">
         <v>0</v>
@@ -14893,10 +14893,10 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -14944,10 +14944,10 @@
         <v>0</v>
       </c>
       <c r="V196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X196">
         <v>0</v>
@@ -14955,7 +14955,7 @@
     </row>
     <row r="197" spans="1:24">
       <c r="A197">
-        <v>95224</v>
+        <v>91811</v>
       </c>
       <c r="B197" t="b">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -14994,13 +14994,13 @@
         <v>0</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O197">
         <v>0</v>
       </c>
       <c r="P197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q197">
         <v>0</v>
@@ -15009,10 +15009,10 @@
         <v>0</v>
       </c>
       <c r="S197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U197">
         <v>0</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198">
-        <v>82696</v>
+        <v>85360</v>
       </c>
       <c r="B198" t="b">
         <v>0</v>
@@ -15038,13 +15038,13 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
         <v>0</v>
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="P198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -15095,21 +15095,21 @@
         <v>0</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:24">
       <c r="A199">
-        <v>99650</v>
+        <v>93394</v>
       </c>
       <c r="B199" t="b">
         <v>0</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -15157,19 +15157,19 @@
         <v>0</v>
       </c>
       <c r="S199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V199">
         <v>0</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X199">
         <v>0</v>
@@ -15177,7 +15177,7 @@
     </row>
     <row r="200" spans="1:24">
       <c r="A200">
-        <v>93463</v>
+        <v>73552</v>
       </c>
       <c r="B200" t="b">
         <v>0</v>
@@ -15186,13 +15186,13 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
       <c r="F200">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200">
         <v>0</v>
@@ -15228,13 +15228,13 @@
         <v>0</v>
       </c>
       <c r="R200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U200">
         <v>0</v>
@@ -15243,21 +15243,21 @@
         <v>0</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:24">
       <c r="A201">
-        <v>73552</v>
+        <v>69529</v>
       </c>
       <c r="B201" t="b">
         <v>0</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -15266,10 +15266,10 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -15311,13 +15311,13 @@
         <v>1</v>
       </c>
       <c r="U201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V201">
         <v>0</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X201">
         <v>0</v>
@@ -15325,25 +15325,25 @@
     </row>
     <row r="202" spans="1:24">
       <c r="A202">
-        <v>69529</v>
+        <v>78971</v>
       </c>
       <c r="B202" t="b">
         <v>0</v>
       </c>
       <c r="C202">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
       <c r="F202">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -15352,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -15379,13 +15379,13 @@
         <v>0</v>
       </c>
       <c r="S202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -15394,12 +15394,12 @@
         <v>0</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:24">
       <c r="A203">
-        <v>81120</v>
+        <v>91337</v>
       </c>
       <c r="B203" t="b">
         <v>0</v>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -15432,13 +15432,13 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M203">
         <v>0</v>
       </c>
       <c r="N203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -15453,10 +15453,10 @@
         <v>0</v>
       </c>
       <c r="S203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U203">
         <v>0</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="204" spans="1:24">
       <c r="A204">
-        <v>91327</v>
+        <v>68102</v>
       </c>
       <c r="B204" t="b">
         <v>0</v>
@@ -15482,13 +15482,13 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E204">
-        <v>0.1707317073170732</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -15518,13 +15518,13 @@
         <v>0</v>
       </c>
       <c r="P204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q204">
         <v>0</v>
       </c>
       <c r="R204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S204">
         <v>1</v>
@@ -15547,22 +15547,22 @@
     </row>
     <row r="205" spans="1:24">
       <c r="A205">
-        <v>68102</v>
+        <v>81883</v>
       </c>
       <c r="B205" t="b">
         <v>0</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D205">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F205">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="N205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -15598,16 +15598,16 @@
         <v>0</v>
       </c>
       <c r="R205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V205">
         <v>0</v>
@@ -15616,27 +15616,27 @@
         <v>0</v>
       </c>
       <c r="X205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:24">
       <c r="A206">
-        <v>98963</v>
+        <v>91583</v>
       </c>
       <c r="B206" t="b">
         <v>0</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206">
         <v>0</v>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="N206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -15675,19 +15675,19 @@
         <v>0</v>
       </c>
       <c r="S206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V206">
         <v>0</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X206">
         <v>0</v>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="207" spans="1:24">
       <c r="A207">
-        <v>80785</v>
+        <v>95132</v>
       </c>
       <c r="B207" t="b">
         <v>0</v>
@@ -15704,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -15728,13 +15728,13 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207">
         <v>0</v>
       </c>
       <c r="N207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -15749,10 +15749,10 @@
         <v>0</v>
       </c>
       <c r="S207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U207">
         <v>0</v>
@@ -15761,15 +15761,15 @@
         <v>0</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:24">
       <c r="A208">
-        <v>84107</v>
+        <v>96502</v>
       </c>
       <c r="B208" t="b">
         <v>0</v>
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -15843,7 +15843,7 @@
     </row>
     <row r="209" spans="1:24">
       <c r="A209">
-        <v>89348</v>
+        <v>78098</v>
       </c>
       <c r="B209" t="b">
         <v>0</v>
@@ -15855,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -15867,7 +15867,7 @@
         <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -15882,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="N209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -15906,10 +15906,10 @@
         <v>0</v>
       </c>
       <c r="V209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X209">
         <v>0</v>
@@ -15917,7 +15917,7 @@
     </row>
     <row r="210" spans="1:24">
       <c r="A210">
-        <v>78098</v>
+        <v>93864</v>
       </c>
       <c r="B210" t="b">
         <v>0</v>
@@ -15926,13 +15926,13 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -15956,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="N210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -15968,13 +15968,13 @@
         <v>0</v>
       </c>
       <c r="R210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U210">
         <v>0</v>
@@ -15983,15 +15983,15 @@
         <v>0</v>
       </c>
       <c r="W210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:24">
       <c r="A211">
-        <v>93879</v>
+        <v>90471</v>
       </c>
       <c r="B211" t="b">
         <v>0</v>
@@ -16000,13 +16000,13 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F211">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -16057,15 +16057,15 @@
         <v>0</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:24">
       <c r="A212">
-        <v>95490</v>
+        <v>99052</v>
       </c>
       <c r="B212" t="b">
         <v>0</v>
@@ -16074,13 +16074,13 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E212">
-        <v>0.02439024390243903</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="O212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -16116,45 +16116,45 @@
         <v>0</v>
       </c>
       <c r="R212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U212">
         <v>0</v>
       </c>
       <c r="V212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W212">
         <v>0</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:24">
       <c r="A213">
-        <v>99423</v>
+        <v>88543</v>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="D213">
-        <v>1.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E213">
-        <v>0.02439024390243903</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="F213">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214">
-        <v>88567</v>
+        <v>92458</v>
       </c>
       <c r="B214" t="b">
         <v>0</v>
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -16252,7 +16252,7 @@
         <v>0</v>
       </c>
       <c r="N214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -16267,10 +16267,10 @@
         <v>0</v>
       </c>
       <c r="S214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U214">
         <v>0</v>
@@ -16287,7 +16287,7 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215">
-        <v>98472</v>
+        <v>79316</v>
       </c>
       <c r="B215" t="b">
         <v>0</v>
@@ -16296,13 +16296,13 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="F215">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -16332,19 +16332,19 @@
         <v>0</v>
       </c>
       <c r="P215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q215">
         <v>0</v>
       </c>
       <c r="R215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U215">
         <v>0</v>
@@ -16353,15 +16353,15 @@
         <v>0</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:24">
       <c r="A216">
-        <v>92740</v>
+        <v>91455</v>
       </c>
       <c r="B216" t="b">
         <v>0</v>
@@ -16376,13 +16376,13 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -16415,10 +16415,10 @@
         <v>0</v>
       </c>
       <c r="S216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U216">
         <v>0</v>
@@ -16435,7 +16435,7 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217">
-        <v>89866</v>
+        <v>78985</v>
       </c>
       <c r="B217" t="b">
         <v>0</v>
@@ -16447,10 +16447,10 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0.07317073170731708</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -16498,10 +16498,10 @@
         <v>0</v>
       </c>
       <c r="V217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X217">
         <v>0</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218">
-        <v>78985</v>
+        <v>96133</v>
       </c>
       <c r="B218" t="b">
         <v>0</v>
@@ -16524,13 +16524,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -16560,13 +16560,13 @@
         <v>0</v>
       </c>
       <c r="R218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U218">
         <v>0</v>
@@ -16583,22 +16583,22 @@
     </row>
     <row r="219" spans="1:24">
       <c r="A219">
-        <v>100437</v>
+        <v>90569</v>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>0.07317073170731708</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="F219">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -16622,13 +16622,13 @@
         <v>0</v>
       </c>
       <c r="N219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O219">
         <v>0</v>
       </c>
       <c r="P219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q219">
         <v>0</v>
@@ -16637,16 +16637,16 @@
         <v>0</v>
       </c>
       <c r="S219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="220" spans="1:24">
       <c r="A220">
-        <v>101931</v>
+        <v>77931</v>
       </c>
       <c r="B220" t="b">
         <v>0</v>
@@ -16666,19 +16666,19 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="K220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -16711,10 +16711,10 @@
         <v>0</v>
       </c>
       <c r="S220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U220">
         <v>0</v>
@@ -16723,15 +16723,15 @@
         <v>0</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:24">
       <c r="A221">
-        <v>77931</v>
+        <v>95491</v>
       </c>
       <c r="B221" t="b">
         <v>0</v>
@@ -16740,19 +16740,19 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -16782,13 +16782,13 @@
         <v>0</v>
       </c>
       <c r="R221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U221">
         <v>0</v>
@@ -16797,15 +16797,15 @@
         <v>0</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:24">
       <c r="A222">
-        <v>85833</v>
+        <v>83196</v>
       </c>
       <c r="B222" t="b">
         <v>0</v>
@@ -16814,13 +16814,13 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O222">
         <v>0</v>
@@ -16856,13 +16856,13 @@
         <v>0</v>
       </c>
       <c r="R222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U222">
         <v>0</v>
@@ -16871,10 +16871,10 @@
         <v>0</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
